--- a/v0.7.1/StructureDefinition-HCXQuestionnairesExtension.xlsx
+++ b/v0.7.1/StructureDefinition-HCXQuestionnairesExtension.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="888" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="888" uniqueCount="156">
   <si>
     <t>Property</t>
   </si>
@@ -247,6 +247,10 @@
   </si>
   <si>
     <t>*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
   </si>
   <si>
     <t>Add a Questionnaire.</t>
@@ -987,13 +991,13 @@
         <v>75</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -1053,7 +1057,7 @@
         <v>77</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AJ2" t="s" s="2">
         <v>75</v>
@@ -1064,10 +1068,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1078,7 +1082,7 @@
         <v>76</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>75</v>
@@ -1090,13 +1094,13 @@
         <v>75</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -1147,13 +1151,13 @@
         <v>75</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>75</v>
@@ -1162,15 +1166,15 @@
         <v>75</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -1193,13 +1197,13 @@
         <v>75</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L4" t="s" s="2">
         <v>29</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -1238,19 +1242,19 @@
         <v>75</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AD4" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>76</v>
@@ -1262,7 +1266,7 @@
         <v>75</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>75</v>
@@ -1270,20 +1274,20 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D5" t="s" s="2">
         <v>75</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G5" t="s" s="2">
         <v>77</v>
@@ -1298,13 +1302,13 @@
         <v>75</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -1355,7 +1359,7 @@
         <v>75</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>76</v>
@@ -1367,7 +1371,7 @@
         <v>75</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>75</v>
@@ -1375,10 +1379,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -1389,7 +1393,7 @@
         <v>76</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>75</v>
@@ -1401,13 +1405,13 @@
         <v>75</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -1458,13 +1462,13 @@
         <v>75</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>75</v>
@@ -1473,19 +1477,19 @@
         <v>75</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
@@ -1504,16 +1508,16 @@
         <v>75</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -1551,19 +1555,19 @@
         <v>75</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AD7" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>76</v>
@@ -1575,18 +1579,18 @@
         <v>75</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -1594,10 +1598,10 @@
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>75</v>
@@ -1609,16 +1613,16 @@
         <v>75</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -1626,7 +1630,7 @@
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="S8" t="s" s="2">
         <v>75</v>
@@ -1668,13 +1672,13 @@
         <v>75</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI8" t="s" s="2">
         <v>75</v>
@@ -1683,15 +1687,15 @@
         <v>75</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -1699,10 +1703,10 @@
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>75</v>
@@ -1714,13 +1718,13 @@
         <v>75</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -1771,33 +1775,33 @@
         <v>75</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI9" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>75</v>
@@ -1807,7 +1811,7 @@
         <v>76</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>75</v>
@@ -1819,13 +1823,13 @@
         <v>75</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -1876,7 +1880,7 @@
         <v>75</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>76</v>
@@ -1888,7 +1892,7 @@
         <v>75</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>75</v>
@@ -1896,10 +1900,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -1910,7 +1914,7 @@
         <v>76</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>75</v>
@@ -1922,13 +1926,13 @@
         <v>75</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -1979,13 +1983,13 @@
         <v>75</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>75</v>
@@ -1994,19 +1998,19 @@
         <v>75</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
@@ -2025,16 +2029,16 @@
         <v>75</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -2072,19 +2076,19 @@
         <v>75</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AD12" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>76</v>
@@ -2096,18 +2100,18 @@
         <v>75</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2115,10 +2119,10 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>75</v>
@@ -2130,16 +2134,16 @@
         <v>75</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -2147,7 +2151,7 @@
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>75</v>
@@ -2189,13 +2193,13 @@
         <v>75</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>75</v>
@@ -2204,15 +2208,15 @@
         <v>75</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2220,10 +2224,10 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>75</v>
@@ -2235,13 +2239,13 @@
         <v>75</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -2292,33 +2296,33 @@
         <v>75</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>75</v>
@@ -2328,7 +2332,7 @@
         <v>76</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>75</v>
@@ -2340,13 +2344,13 @@
         <v>75</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -2397,7 +2401,7 @@
         <v>75</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>76</v>
@@ -2409,7 +2413,7 @@
         <v>75</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>75</v>
@@ -2417,10 +2421,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2431,7 +2435,7 @@
         <v>76</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>75</v>
@@ -2443,13 +2447,13 @@
         <v>75</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -2500,13 +2504,13 @@
         <v>75</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>75</v>
@@ -2515,19 +2519,19 @@
         <v>75</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
@@ -2546,16 +2550,16 @@
         <v>75</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -2593,19 +2597,19 @@
         <v>75</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AD17" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>76</v>
@@ -2617,18 +2621,18 @@
         <v>75</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -2636,10 +2640,10 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>75</v>
@@ -2651,16 +2655,16 @@
         <v>75</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -2668,7 +2672,7 @@
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="S18" t="s" s="2">
         <v>75</v>
@@ -2710,13 +2714,13 @@
         <v>75</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>75</v>
@@ -2725,15 +2729,15 @@
         <v>75</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -2741,10 +2745,10 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>75</v>
@@ -2756,13 +2760,13 @@
         <v>75</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -2789,11 +2793,11 @@
         <v>75</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Y19" s="2"/>
       <c r="Z19" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>75</v>
@@ -2811,33 +2815,33 @@
         <v>75</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>75</v>
@@ -2847,7 +2851,7 @@
         <v>76</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>75</v>
@@ -2859,13 +2863,13 @@
         <v>75</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -2916,7 +2920,7 @@
         <v>75</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>76</v>
@@ -2928,7 +2932,7 @@
         <v>75</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>75</v>
@@ -2936,10 +2940,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -2950,7 +2954,7 @@
         <v>76</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>75</v>
@@ -2962,13 +2966,13 @@
         <v>75</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -3019,13 +3023,13 @@
         <v>75</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>75</v>
@@ -3034,19 +3038,19 @@
         <v>75</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
@@ -3065,16 +3069,16 @@
         <v>75</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -3112,19 +3116,19 @@
         <v>75</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AD22" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>76</v>
@@ -3136,18 +3140,18 @@
         <v>75</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3155,10 +3159,10 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>75</v>
@@ -3170,16 +3174,16 @@
         <v>75</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -3187,7 +3191,7 @@
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="S23" t="s" s="2">
         <v>75</v>
@@ -3229,13 +3233,13 @@
         <v>75</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>75</v>
@@ -3244,15 +3248,15 @@
         <v>75</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3260,10 +3264,10 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>75</v>
@@ -3275,13 +3279,13 @@
         <v>75</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -3332,30 +3336,30 @@
         <v>75</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -3363,10 +3367,10 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>75</v>
@@ -3378,16 +3382,16 @@
         <v>75</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -3437,13 +3441,13 @@
         <v>75</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>75</v>
@@ -3452,15 +3456,15 @@
         <v>75</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -3483,13 +3487,13 @@
         <v>75</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -3540,22 +3544,22 @@
         <v>75</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
